--- a/biology/Médecine/Tronc_supérieur_du_plexus_brachial/Tronc_supérieur_du_plexus_brachial.xlsx
+++ b/biology/Médecine/Tronc_supérieur_du_plexus_brachial/Tronc_supérieur_du_plexus_brachial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tronc_sup%C3%A9rieur_du_plexus_brachial</t>
+          <t>Tronc_supérieur_du_plexus_brachial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc supérieur du plexus brachial est la partie du plexus brachial formé par la jonction les racines antérieures des cinquième et sixième nerf cervicaux.
 Il se divise en une division antérieure et postérieure.
